--- a/data/trans_dic/P19C05-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C05-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2388188011549442</v>
+        <v>0.2399815140650438</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2440641310347378</v>
+        <v>0.2442595906749608</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1758169530032681</v>
+        <v>0.1772281280405884</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1492294495728056</v>
+        <v>0.1471842114223336</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.26905910245745</v>
+        <v>0.2721185651730416</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3057936611186302</v>
+        <v>0.3042120156551791</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1798498263622713</v>
+        <v>0.1808974766215715</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2420065068062218</v>
+        <v>0.2397019195861828</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.267480670277455</v>
+        <v>0.2673541882885889</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2899597626520717</v>
+        <v>0.2895974740011923</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1859905350200562</v>
+        <v>0.1865947574380038</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2112053331304552</v>
+        <v>0.2113397888969733</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3074478788682736</v>
+        <v>0.3093810728775336</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3107925184910268</v>
+        <v>0.3123602713074536</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2466012562508866</v>
+        <v>0.2494872875249162</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2055890649646901</v>
+        <v>0.2057988443337122</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3319533823239822</v>
+        <v>0.3285432509456497</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3649836706119096</v>
+        <v>0.3583677117271184</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2485583546746791</v>
+        <v>0.2487730951352864</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.289170929059611</v>
+        <v>0.2887323166966004</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.30979616518681</v>
+        <v>0.3117559552178696</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3322593745507274</v>
+        <v>0.3340228873114452</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2362221106523172</v>
+        <v>0.2363336705638689</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.248555034464476</v>
+        <v>0.2478020189143967</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06003097511352425</v>
+        <v>0.06042240878207881</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09030168863975012</v>
+        <v>0.09029876587997554</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07290150647347315</v>
+        <v>0.07400080463647797</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08095563503293658</v>
+        <v>0.08049302304891096</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07012775732663198</v>
+        <v>0.06970881978558686</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08931060218968673</v>
+        <v>0.08835618974531892</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08036468776093965</v>
+        <v>0.07902288669866116</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07461477580660776</v>
+        <v>0.07480383212274513</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06949432710556046</v>
+        <v>0.06938107679239768</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09384409219324245</v>
+        <v>0.09335308556695479</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.08041324449344178</v>
+        <v>0.08103179444743691</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.08115430007526277</v>
+        <v>0.08139506147142851</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08933789469747594</v>
+        <v>0.0915676089300298</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1222618880306935</v>
+        <v>0.1234948952593581</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1031820777877799</v>
+        <v>0.1013150968290101</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1062886324879767</v>
+        <v>0.1070876153061884</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1004625581877506</v>
+        <v>0.09971691985558558</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1212680454947777</v>
+        <v>0.1206657589743336</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1090513856806733</v>
+        <v>0.1087092176550034</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09452129988675673</v>
+        <v>0.09440642526209049</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09042761343007462</v>
+        <v>0.09117101682409151</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1161515042482308</v>
+        <v>0.1164855960573909</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1002886364628692</v>
+        <v>0.1004849804459081</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09888294264589449</v>
+        <v>0.09807243765204851</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.07690072888595904</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.08309809394886819</v>
+        <v>0.08309809394886822</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.09531066954875855</v>
@@ -969,7 +969,7 @@
         <v>0.07433024059809967</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.07598446913409444</v>
+        <v>0.07598446913409443</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07885999634407133</v>
+        <v>0.08094255602232912</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0609892871326214</v>
+        <v>0.06340444388707654</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05439266326078837</v>
+        <v>0.05353706181281425</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06556086179398493</v>
+        <v>0.06518185550094265</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06857618522363799</v>
+        <v>0.06894619514048438</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05169425526678595</v>
+        <v>0.05207351714926677</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05112373456557692</v>
+        <v>0.04973213786000708</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05388136281439795</v>
+        <v>0.05392548817918678</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08129215543772007</v>
+        <v>0.08237517554111932</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06334516185940003</v>
+        <v>0.06386872081280741</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0582858949124493</v>
+        <v>0.05849755814640858</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06375786523570635</v>
+        <v>0.06411663922006247</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1398947351810286</v>
+        <v>0.1427454031062854</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.121137202057396</v>
+        <v>0.1251594515079861</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1051925869462668</v>
+        <v>0.1063177781794123</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1052440206331242</v>
+        <v>0.104807360099557</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1288678531242805</v>
+        <v>0.1273376008953267</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1043000266900648</v>
+        <v>0.1093899799366046</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.09839517130067892</v>
+        <v>0.09937538973567837</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08760309884353906</v>
+        <v>0.08679164087208271</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.125084481771417</v>
+        <v>0.1247866975305275</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1035413866940929</v>
+        <v>0.1070150142574726</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0924011061630132</v>
+        <v>0.09365104805031434</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09006140017848539</v>
+        <v>0.09014102011763656</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1222325170665539</v>
+        <v>0.1233189624332062</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1354207978000492</v>
+        <v>0.1364625051976698</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09344303218677434</v>
+        <v>0.0953274731842139</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0943432951524919</v>
+        <v>0.09429783966320146</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1481952969562092</v>
+        <v>0.1472937971892109</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1678989323864009</v>
+        <v>0.1674579212532025</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1035144629794348</v>
+        <v>0.1045679575726025</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1120323992155145</v>
+        <v>0.112030902914161</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1392282296822801</v>
+        <v>0.1389100731941768</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1566839655771498</v>
+        <v>0.1567751938502345</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1027435474288368</v>
+        <v>0.1024318521946713</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1058433998066229</v>
+        <v>0.1056716531325995</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1506208364361623</v>
+        <v>0.1525321313652471</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1643222786001584</v>
+        <v>0.1650300106656274</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1180376553484692</v>
+        <v>0.1189525962377321</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1136965678475375</v>
+        <v>0.1142422505703667</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1761592366774703</v>
+        <v>0.1746100608037576</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1971703636393931</v>
+        <v>0.1943609195406463</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1286693395931613</v>
+        <v>0.1292701949173564</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1288696674402773</v>
+        <v>0.1284556873871146</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1595712881084231</v>
+        <v>0.1591039172566758</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.176668736082862</v>
+        <v>0.1773040648063875</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1199669751844338</v>
+        <v>0.1211259456319024</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1191146850555257</v>
+        <v>0.1192114766599059</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>164633</v>
+        <v>165435</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>190168</v>
+        <v>190321</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>80422</v>
+        <v>81068</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>80178</v>
+        <v>79079</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>258017</v>
+        <v>260951</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>345009</v>
+        <v>343225</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>114901</v>
+        <v>115571</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>189876</v>
+        <v>188068</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>440895</v>
+        <v>440686</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>553074</v>
+        <v>552383</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>203900</v>
+        <v>204563</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>279186</v>
+        <v>279364</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>211944</v>
+        <v>213276</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>242161</v>
+        <v>243383</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>112800</v>
+        <v>114120</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>110459</v>
+        <v>110571</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>318330</v>
+        <v>315060</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>411790</v>
+        <v>404326</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>158797</v>
+        <v>158935</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>226881</v>
+        <v>226537</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>510644</v>
+        <v>513875</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>633757</v>
+        <v>637120</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>258969</v>
+        <v>259091</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>328558</v>
+        <v>327562</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>78908</v>
+        <v>79422</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>152454</v>
+        <v>152449</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>123685</v>
+        <v>125550</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>173769</v>
+        <v>172777</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>96299</v>
+        <v>95724</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>142029</v>
+        <v>140511</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>137321</v>
+        <v>135028</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>157481</v>
+        <v>157880</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>186776</v>
+        <v>186472</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>307673</v>
+        <v>306063</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>273833</v>
+        <v>275940</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>345480</v>
+        <v>346504</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>117430</v>
+        <v>120361</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>206412</v>
+        <v>208494</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>175059</v>
+        <v>171892</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>228146</v>
+        <v>229861</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>137955</v>
+        <v>136931</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>192850</v>
+        <v>191892</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>186338</v>
+        <v>185754</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>199496</v>
+        <v>199253</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>243037</v>
+        <v>245035</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>380809</v>
+        <v>381904</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>341515</v>
+        <v>342184</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>420952</v>
+        <v>417501</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>35560</v>
+        <v>36499</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>26965</v>
+        <v>28033</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>27155</v>
+        <v>26728</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>46013</v>
+        <v>45747</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>28033</v>
+        <v>28184</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>21904</v>
+        <v>22065</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>25987</v>
+        <v>25280</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>39032</v>
+        <v>39064</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>69888</v>
+        <v>70819</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>54848</v>
+        <v>55301</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>58727</v>
+        <v>58940</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>90935</v>
+        <v>91447</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>63083</v>
+        <v>64368</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>53559</v>
+        <v>55337</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>52517</v>
+        <v>53079</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>73865</v>
+        <v>73558</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>52679</v>
+        <v>52053</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>44194</v>
+        <v>46351</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>50016</v>
+        <v>50514</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>63461</v>
+        <v>62873</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>107537</v>
+        <v>107281</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>89652</v>
+        <v>92660</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>93100</v>
+        <v>94359</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>128450</v>
+        <v>128564</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>300049</v>
+        <v>302716</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>394018</v>
+        <v>397049</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>247930</v>
+        <v>252929</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>319408</v>
+        <v>319255</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>406194</v>
+        <v>403723</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>527579</v>
+        <v>526193</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>295628</v>
+        <v>298637</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>405512</v>
+        <v>405507</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>723385</v>
+        <v>721732</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>948224</v>
+        <v>948777</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>566033</v>
+        <v>564316</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>741454</v>
+        <v>740251</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>369735</v>
+        <v>374427</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>478110</v>
+        <v>480169</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>313186</v>
+        <v>315613</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>384931</v>
+        <v>386778</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>482841</v>
+        <v>478595</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>619557</v>
+        <v>610729</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>367468</v>
+        <v>369184</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>466456</v>
+        <v>464958</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>829081</v>
+        <v>826653</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1069169</v>
+        <v>1073014</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>660920</v>
+        <v>667305</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>834422</v>
+        <v>835100</v>
       </c>
     </row>
     <row r="20">
